--- a/public/FileStudent/TrangThaiSinhVien_Import.xlsx
+++ b/public/FileStudent/TrangThaiSinhVien_Import.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>tt</t>
   </si>
@@ -56,17 +56,17 @@
     <t>ĐẶNG THÁI HÀ</t>
   </si>
   <si>
-    <t>Đang học</t>
-  </si>
-  <si>
     <t>Đã tốt nghiệp</t>
+  </si>
+  <si>
+    <t>Số quyết định</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +84,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -108,7 +115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -118,6 +125,7 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,9 +420,10 @@
     <col min="4" max="4" width="24" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -433,8 +442,11 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -451,10 +463,13 @@
         <v>8</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -473,68 +488,71 @@
       <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D4"/>
       <c r="E4"/>
       <c r="F4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D7"/>
       <c r="E7"/>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D8"/>
       <c r="E8"/>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D9"/>
       <c r="E9"/>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D10"/>
       <c r="E10"/>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D11"/>
       <c r="E11"/>
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D16"/>
       <c r="E16"/>
       <c r="F16"/>

--- a/public/FileStudent/TrangThaiSinhVien_Import.xlsx
+++ b/public/FileStudent/TrangThaiSinhVien_Import.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>tt</t>
   </si>
@@ -53,13 +53,16 @@
     <t>ĐOÀN VIỆT ANH</t>
   </si>
   <si>
-    <t>ĐẶNG THÁI HÀ</t>
-  </si>
-  <si>
     <t>Đã tốt nghiệp</t>
   </si>
   <si>
     <t>Số quyết định</t>
+  </si>
+  <si>
+    <t>Ngày quyết đinh</t>
+  </si>
+  <si>
+    <t>2021/1/1</t>
   </si>
 </sst>
 </file>
@@ -115,7 +118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -126,6 +129,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,9 +425,10 @@
     <col min="5" max="5" width="25.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,10 +448,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -463,96 +471,81 @@
         <v>8</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4">
-        <v>211200574</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D4"/>
       <c r="E4"/>
       <c r="F4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D7"/>
       <c r="E7"/>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D8"/>
       <c r="E8"/>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D9"/>
       <c r="E9"/>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D10"/>
       <c r="E10"/>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D11"/>
       <c r="E11"/>
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D16"/>
       <c r="E16"/>
       <c r="F16"/>
@@ -561,11 +554,6 @@
       <c r="D17"/>
       <c r="E17"/>
       <c r="F17"/>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/FileStudent/TrangThaiSinhVien_Import.xlsx
+++ b/public/FileStudent/TrangThaiSinhVien_Import.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>tt</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Mã sinh viên</t>
   </si>
@@ -35,41 +32,17 @@
     <t>Họ tên</t>
   </si>
   <si>
-    <t>Tên lớp</t>
+    <t>TT</t>
   </si>
   <si>
-    <t>Tên khoa</t>
-  </si>
-  <si>
-    <t>Tình trạng sinh viên</t>
-  </si>
-  <si>
-    <t>Công nghệ thông tin 1 62</t>
-  </si>
-  <si>
-    <t>Khoa Công nghệ thông tin</t>
-  </si>
-  <si>
-    <t>ĐOÀN VIỆT ANH</t>
-  </si>
-  <si>
-    <t>Đã tốt nghiệp</t>
-  </si>
-  <si>
-    <t>Số quyết định</t>
-  </si>
-  <si>
-    <t>Ngày quyết đinh</t>
-  </si>
-  <si>
-    <t>2021/1/1</t>
+    <t>Lê Minh Đạt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,13 +60,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -118,7 +84,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -128,8 +94,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,150 +374,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>211200553</v>
+        <v>191200274</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
